--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0012_Upload File ke Storage.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0012_Upload File ke Storage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\Digisales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF400084-6E7C-4CF8-9BA9-987E1761F749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2A273-E984-4A15-9092-BA8E3E4F6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>/FileDistribution</t>
   </si>
   <si>
-    <t>FileDist18042022_5.dat</t>
+    <t>FileDist18042022_9.dat</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
